--- a/soloprojrct_data compilations.xlsx
+++ b/soloprojrct_data compilations.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBAB012-F7FC-4B2C-BE8D-38E07AD322C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{DDFC000E-A1B4-4D5A-AE7C-16D26CC064AC}"/>
+    <workbookView windowWidth="22188" windowHeight="9144" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="participant 1" sheetId="1" r:id="rId1"/>
@@ -21,17 +15,12 @@
     <sheet name="compilation of data" sheetId="7" r:id="rId6"/>
     <sheet name="accuracy graph" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="96">
   <si>
     <t>stim_word</t>
   </si>
@@ -240,10 +229,10 @@
     <t>2023-11-30_11h27.05.129</t>
   </si>
   <si>
-    <t>2023-11-28_12h38.15.447</t>
+    <t>2023-11-30_11h49.24.310</t>
   </si>
   <si>
-    <t>2023-11-30_11h49.24.310</t>
+    <t>2023-11-28_12h38.15.447</t>
   </si>
   <si>
     <t>study_phasewords</t>
@@ -255,31 +244,43 @@
     <t>no. of words correctly recalled but were not from the study phase is(new words) : 5</t>
   </si>
   <si>
-    <t>accuracy= 11+5/19= 16/19= 0.84= 84% accuracy</t>
+    <t>no. of words correctly recalled but not from the study phase is(new words) : 2</t>
   </si>
   <si>
-    <t>no. of words correctly recalled but not from the study phase is(new words) : 2</t>
+    <t>accuracy= 11+5/19= 16/19= 0.84= 84% accuracy</t>
   </si>
   <si>
     <t>accuracy= 10/19= 0.52=52% accuracy</t>
   </si>
   <si>
+    <t>dprime=0.57-0.26=0.31</t>
+  </si>
+  <si>
+    <t>dprime= 0.42-0.10=0.32</t>
+  </si>
+  <si>
     <t>no. of words correctly identified from the study phase: 11</t>
+  </si>
+  <si>
+    <t>no. of words correctly identified from the study phase :12</t>
   </si>
   <si>
     <t>no. of words correctly identified but not from the study phase: 4</t>
   </si>
   <si>
+    <t>no. of words correctly identified but were not from the study phase: 4</t>
+  </si>
+  <si>
     <t>accuracy= 15/19= 0.78= 78% accuracy</t>
   </si>
   <si>
-    <t>no. of words correctly identified from the study phase :12</t>
+    <t>accuracy= 16/19= 0.84= 84% accuracy</t>
   </si>
   <si>
-    <t>no. of words correctly identified but were not from the study phase: 4</t>
+    <t>dprime= 0.57-021=0.36</t>
   </si>
   <si>
-    <t>accuracy= 16/19= 0.84= 84% accuracy</t>
+    <t>dprime= 0.63-0.21=0.42</t>
   </si>
   <si>
     <t>no. of words correctly identified from the studyphase: 13</t>
@@ -289,6 +290,9 @@
   </si>
   <si>
     <t>accuracy= 17/19= 0.89= 89% accuracy</t>
+  </si>
+  <si>
+    <t>dprime= 0.68-0.21=0.47</t>
   </si>
   <si>
     <t>no. of participants</t>
@@ -302,17 +306,26 @@
   <si>
     <t>accuracy %</t>
   </si>
+  <si>
+    <t>dprime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,16 +334,353 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -338,9 +688,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -348,26 +940,70 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -379,6 +1015,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -392,7 +1029,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+            <a:defRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="50000"/>
@@ -404,7 +1041,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -451,6 +1087,27 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'accuracy graph'!$A$2:$A$6</c:f>
@@ -499,11 +1156,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AF55-49CC-B842-F3BBA8D7AC93}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -541,6 +1193,27 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'accuracy graph'!$A$2:$A$6</c:f>
@@ -589,11 +1262,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AF55-49CC-B842-F3BBA8D7AC93}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -631,6 +1299,27 @@
             </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>'accuracy graph'!$A$2:$A$6</c:f>
@@ -679,11 +1368,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AF55-49CC-B842-F3BBA8D7AC93}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -727,7 +1411,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -739,7 +1423,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2077438736"/>
@@ -772,7 +1455,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -784,7 +1467,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2084995056"/>
@@ -801,6 +1483,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -814,7 +1497,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -826,7 +1509,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -854,9 +1536,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1427,7 +2108,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1441,20 +2122,14 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BC07D5-4227-D51D-B8B1-AD38A40B0C5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="5364480" y="571500"/>
+        <a:ext cx="4625340" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1510,7 +2185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1543,26 +2218,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1595,23 +2253,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1753,24 +2394,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB2F0BD5-9EF4-4C57-99C8-0E6A0FA7F050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:DG39"/>
   <sheetViews>
     <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:111">
       <c r="A1" s="1" t="s">
@@ -1976,16 +2612,16 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <v>24.565550599945698</v>
+        <v>24.5655505999457</v>
       </c>
       <c r="M2" s="1">
-        <v>24.565550599945698</v>
+        <v>24.5655505999457</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O2" s="1">
-        <v>0.87365829991176702</v>
+        <v>0.873658299911767</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
@@ -2023,7 +2659,7 @@
         <v>43</v>
       </c>
       <c r="AM2" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
@@ -2126,7 +2762,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1">
-        <v>25.511095700087001</v>
+        <v>25.511095700087</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -2160,7 +2796,7 @@
         <v>43</v>
       </c>
       <c r="AM3" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -2263,7 +2899,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
-        <v>26.482495500007602</v>
+        <v>26.4824955000076</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -2297,7 +2933,7 @@
         <v>43</v>
       </c>
       <c r="AM4" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -2400,7 +3036,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>27.481820099987001</v>
+        <v>27.481820099987</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -2434,7 +3070,7 @@
         <v>43</v>
       </c>
       <c r="AM5" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -2571,7 +3207,7 @@
         <v>43</v>
       </c>
       <c r="AM6" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -2674,7 +3310,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>29.479815599974199</v>
+        <v>29.4798155999742</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -2708,7 +3344,7 @@
         <v>43</v>
       </c>
       <c r="AM7" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -2845,7 +3481,7 @@
         <v>43</v>
       </c>
       <c r="AM8" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
@@ -2948,7 +3584,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1">
-        <v>31.478628899902098</v>
+        <v>31.4786288999021</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -2982,7 +3618,7 @@
         <v>43</v>
       </c>
       <c r="AM9" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -3085,7 +3721,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1">
-        <v>32.477818199898998</v>
+        <v>32.477818199899</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -3119,7 +3755,7 @@
         <v>43</v>
       </c>
       <c r="AM10" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -3256,7 +3892,7 @@
         <v>43</v>
       </c>
       <c r="AM11" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -3359,7 +3995,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>34.480585800018098</v>
+        <v>34.4805858000181</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -3393,7 +4029,7 @@
         <v>43</v>
       </c>
       <c r="AM12" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -3496,7 +4132,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>35.477236100006799</v>
+        <v>35.4772361000068</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -3530,7 +4166,7 @@
         <v>43</v>
       </c>
       <c r="AM13" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -3633,7 +4269,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <v>36.476565399905603</v>
+        <v>36.4765653999056</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -3667,7 +4303,7 @@
         <v>43</v>
       </c>
       <c r="AM14" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -3804,7 +4440,7 @@
         <v>43</v>
       </c>
       <c r="AM15" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -3907,7 +4543,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>38.477155300089997</v>
+        <v>38.47715530009</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -3941,7 +4577,7 @@
         <v>43</v>
       </c>
       <c r="AM16" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -4035,16 +4671,16 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
-        <v>39.471408199984502</v>
+        <v>39.4714081999845</v>
       </c>
       <c r="S17" s="1">
-        <v>39.471408199984502</v>
+        <v>39.4714081999845</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U17" s="1">
-        <v>3.3948300001211398</v>
+        <v>3.39483000012114</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>40</v>
@@ -4076,7 +4712,7 @@
         <v>43</v>
       </c>
       <c r="AM17" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
@@ -4189,10 +4825,10 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1">
-        <v>42.941418400034301</v>
+        <v>42.9414184000343</v>
       </c>
       <c r="X18" s="1">
-        <v>42.941418400034301</v>
+        <v>42.9414184000343</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>59</v>
@@ -4201,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="1">
-        <v>3.0536684999242398</v>
+        <v>3.05366849992424</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>40</v>
@@ -4227,7 +4863,7 @@
         <v>43</v>
       </c>
       <c r="AM18" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -4340,10 +4976,10 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
-        <v>46.014974599936899</v>
+        <v>46.0149745999369</v>
       </c>
       <c r="X19" s="1">
-        <v>46.014974599936899</v>
+        <v>46.0149745999369</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>59</v>
@@ -4378,7 +5014,7 @@
         <v>43</v>
       </c>
       <c r="AM19" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -4491,10 +5127,10 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>47.347000699955899</v>
+        <v>47.3470006999559</v>
       </c>
       <c r="X20" s="1">
-        <v>47.347000699955899</v>
+        <v>47.3470006999559</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>59</v>
@@ -4503,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.64276569988578502</v>
+        <v>0.642765699885785</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>40</v>
@@ -4529,7 +5165,7 @@
         <v>43</v>
       </c>
       <c r="AM20" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -4654,7 +5290,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.4802965000271699</v>
+        <v>1.48029650002717</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>40</v>
@@ -4680,7 +5316,7 @@
         <v>43</v>
       </c>
       <c r="AM21" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -4793,10 +5429,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
-        <v>49.561634599929597</v>
+        <v>49.5616345999296</v>
       </c>
       <c r="X22" s="1">
-        <v>49.561634599929597</v>
+        <v>49.5616345999296</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>60</v>
@@ -4805,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.90028569987043705</v>
+        <v>0.900285699870437</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>40</v>
@@ -4831,7 +5467,7 @@
         <v>43</v>
       </c>
       <c r="AM22" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -4944,10 +5580,10 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>50.494163099909201</v>
+        <v>50.4941630999092</v>
       </c>
       <c r="X23" s="1">
-        <v>50.494163099909201</v>
+        <v>50.4941630999092</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>60</v>
@@ -4956,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.96636860002763503</v>
+        <v>0.966368600027635</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -4982,7 +5618,7 @@
         <v>43</v>
       </c>
       <c r="AM23" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -5095,10 +5731,10 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
-        <v>51.493207300081799</v>
+        <v>51.4932073000818</v>
       </c>
       <c r="X24" s="1">
-        <v>51.493207300081799</v>
+        <v>51.4932073000818</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>59</v>
@@ -5107,7 +5743,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.92492490005679395</v>
+        <v>0.924924900056794</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>40</v>
@@ -5133,7 +5769,7 @@
         <v>43</v>
       </c>
       <c r="AM24" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -5246,10 +5882,10 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>52.442257399903603</v>
+        <v>52.4422573999036</v>
       </c>
       <c r="X25" s="1">
-        <v>52.442257399903603</v>
+        <v>52.4422573999036</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>59</v>
@@ -5258,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.55994090018793896</v>
+        <v>0.559940900187939</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>40</v>
@@ -5284,7 +5920,7 @@
         <v>43</v>
       </c>
       <c r="AM25" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -5397,10 +6033,10 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1">
-        <v>53.025187599938299</v>
+        <v>53.0251875999383</v>
       </c>
       <c r="X26" s="1">
-        <v>53.025187599938299</v>
+        <v>53.0251875999383</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>59</v>
@@ -5409,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.61454420001246002</v>
+        <v>0.61454420001246</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>40</v>
@@ -5435,7 +6071,7 @@
         <v>43</v>
       </c>
       <c r="AM26" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -5548,10 +6184,10 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
-        <v>53.669857500120997</v>
+        <v>53.669857500121</v>
       </c>
       <c r="X27" s="1">
-        <v>53.669857500120997</v>
+        <v>53.669857500121</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>60</v>
@@ -5560,7 +6196,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="1">
-        <v>1.0530395000241599</v>
+        <v>1.05303950002416</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>40</v>
@@ -5586,7 +6222,7 @@
         <v>43</v>
       </c>
       <c r="AM27" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -5699,10 +6335,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
-        <v>54.744256299920302</v>
+        <v>54.7442562999203</v>
       </c>
       <c r="X28" s="1">
-        <v>54.744256299920302</v>
+        <v>54.7442562999203</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>59</v>
@@ -5737,7 +6373,7 @@
         <v>43</v>
       </c>
       <c r="AM28" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -5850,10 +6486,10 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
-        <v>55.843753600027398</v>
+        <v>55.8437536000274</v>
       </c>
       <c r="X29" s="1">
-        <v>55.843753600027398</v>
+        <v>55.8437536000274</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>59</v>
@@ -5862,7 +6498,7 @@
         <v>1</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.67666849982924704</v>
+        <v>0.676668499829247</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>40</v>
@@ -5888,7 +6524,7 @@
         <v>43</v>
       </c>
       <c r="AM29" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -6001,10 +6637,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1">
-        <v>56.541955699911298</v>
+        <v>56.5419556999113</v>
       </c>
       <c r="X30" s="1">
-        <v>56.541955699911298</v>
+        <v>56.5419556999113</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>60</v>
@@ -6039,7 +6675,7 @@
         <v>43</v>
       </c>
       <c r="AM30" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -6152,10 +6788,10 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
-        <v>57.651906599989097</v>
+        <v>57.6519065999891</v>
       </c>
       <c r="X31" s="1">
-        <v>57.651906599989097</v>
+        <v>57.6519065999891</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>60</v>
@@ -6164,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.75372709985822395</v>
+        <v>0.753727099858224</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>40</v>
@@ -6190,7 +6826,7 @@
         <v>43</v>
       </c>
       <c r="AM31" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -6303,10 +6939,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1">
-        <v>58.439981099916601</v>
+        <v>58.4399810999166</v>
       </c>
       <c r="X32" s="1">
-        <v>58.439981099916601</v>
+        <v>58.4399810999166</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>59</v>
@@ -6315,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="AA32" s="1">
-        <v>1.6981943000573601</v>
+        <v>1.69819430005736</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>40</v>
@@ -6341,7 +6977,7 @@
         <v>43</v>
       </c>
       <c r="AM32" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -6454,10 +7090,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1">
-        <v>60.173460500082001</v>
+        <v>60.173460500082</v>
       </c>
       <c r="X33" s="1">
-        <v>60.173460500082001</v>
+        <v>60.173460500082</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>59</v>
@@ -6466,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.53886880003847104</v>
+        <v>0.538868800038471</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>40</v>
@@ -6492,7 +7128,7 @@
         <v>43</v>
       </c>
       <c r="AM33" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -6605,10 +7241,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1">
-        <v>60.741127500077702</v>
+        <v>60.7411275000777</v>
       </c>
       <c r="X34" s="1">
-        <v>60.741127500077702</v>
+        <v>60.7411275000777</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>60</v>
@@ -6617,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.78092149994336002</v>
+        <v>0.78092149994336</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>40</v>
@@ -6643,7 +7279,7 @@
         <v>43</v>
       </c>
       <c r="AM34" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -6756,10 +7392,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1">
-        <v>61.555106499930801</v>
+        <v>61.5551064999308</v>
       </c>
       <c r="X35" s="1">
-        <v>61.555106499930801</v>
+        <v>61.5551064999308</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>59</v>
@@ -6768,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="AA35" s="1">
-        <v>0.82252790010534205</v>
+        <v>0.822527900105342</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>40</v>
@@ -6794,7 +7430,7 @@
         <v>43</v>
       </c>
       <c r="AM35" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -6907,10 +7543,10 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1">
-        <v>62.404886200092697</v>
+        <v>62.4048862000927</v>
       </c>
       <c r="X36" s="1">
-        <v>62.404886200092697</v>
+        <v>62.4048862000927</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>60</v>
@@ -6919,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <v>1.0149798002093999</v>
+        <v>1.0149798002094</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>40</v>
@@ -6945,7 +7581,7 @@
         <v>43</v>
       </c>
       <c r="AM36" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -7050,16 +7686,16 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1">
-        <v>63.448872100096096</v>
+        <v>63.4488721000961</v>
       </c>
       <c r="AD37" s="1">
-        <v>63.448872100096096</v>
+        <v>63.4488721000961</v>
       </c>
       <c r="AE37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF37" s="1">
-        <v>2.7168177000712599</v>
+        <v>2.71681770007126</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>40</v>
@@ -7080,7 +7716,7 @@
         <v>43</v>
       </c>
       <c r="AM37" s="1">
-        <v>60.042966766631601</v>
+        <v>60.0429667666316</v>
       </c>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
@@ -7383,18 +8019,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94780BFF-1211-47DE-AF37-99B617ECDE47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AZ41"/>
   <sheetViews>
     <sheetView topLeftCell="X11" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:Z36"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
@@ -7550,7 +8188,7 @@
         <v>39</v>
       </c>
       <c r="O2" s="1">
-        <v>2.2497971002012398</v>
+        <v>2.24979710020124</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
@@ -7588,7 +8226,7 @@
         <v>43</v>
       </c>
       <c r="AM2" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
@@ -7666,7 +8304,7 @@
         <v>43</v>
       </c>
       <c r="AM3" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -7744,7 +8382,7 @@
         <v>43</v>
       </c>
       <c r="AM4" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -7788,7 +8426,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>25.206417300039899</v>
+        <v>25.2064173000399</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -7822,7 +8460,7 @@
         <v>43</v>
       </c>
       <c r="AM5" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -7866,7 +8504,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>26.205678099999201</v>
+        <v>26.2056780999992</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -7900,7 +8538,7 @@
         <v>43</v>
       </c>
       <c r="AM6" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -7944,7 +8582,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>27.214686800027199</v>
+        <v>27.2146868000272</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -7978,7 +8616,7 @@
         <v>43</v>
       </c>
       <c r="AM7" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -8022,7 +8660,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>28.209680199855899</v>
+        <v>28.2096801998559</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -8056,7 +8694,7 @@
         <v>43</v>
       </c>
       <c r="AM8" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
@@ -8100,7 +8738,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1">
-        <v>29.208022899925702</v>
+        <v>29.2080228999257</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -8134,7 +8772,7 @@
         <v>43</v>
       </c>
       <c r="AM9" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -8178,7 +8816,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1">
-        <v>30.208584599895399</v>
+        <v>30.2085845998954</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -8212,7 +8850,7 @@
         <v>43</v>
       </c>
       <c r="AM10" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -8290,7 +8928,7 @@
         <v>43</v>
       </c>
       <c r="AM11" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -8334,7 +8972,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>32.204314599977799</v>
+        <v>32.2043145999778</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -8368,7 +9006,7 @@
         <v>43</v>
       </c>
       <c r="AM12" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -8412,7 +9050,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>33.201325800036997</v>
+        <v>33.201325800037</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -8446,7 +9084,7 @@
         <v>43</v>
       </c>
       <c r="AM13" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -8490,7 +9128,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <v>34.201486599864403</v>
+        <v>34.2014865998644</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -8524,7 +9162,7 @@
         <v>43</v>
       </c>
       <c r="AM14" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -8602,7 +9240,7 @@
         <v>43</v>
       </c>
       <c r="AM15" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -8646,7 +9284,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>36.245921199908402</v>
+        <v>36.2459211999084</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -8680,7 +9318,7 @@
         <v>43</v>
       </c>
       <c r="AM16" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -8756,7 +9394,7 @@
         <v>43</v>
       </c>
       <c r="AM17" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
@@ -8810,10 +9448,10 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1">
-        <v>38.637585700023898</v>
+        <v>38.6375857000239</v>
       </c>
       <c r="X18" s="1">
-        <v>38.637585700023898</v>
+        <v>38.6375857000239</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>59</v>
@@ -8822,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.9635103002656198</v>
+        <v>2.96351030026562</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>40</v>
@@ -8848,7 +9486,7 @@
         <v>43</v>
       </c>
       <c r="AM18" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -8914,7 +9552,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.81645309994928505</v>
+        <v>0.816453099949285</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>40</v>
@@ -8940,7 +9578,7 @@
         <v>43</v>
       </c>
       <c r="AM19" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -8994,10 +9632,10 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>42.553874799981699</v>
+        <v>42.5538747999817</v>
       </c>
       <c r="X20" s="1">
-        <v>42.553874799981699</v>
+        <v>42.5538747999817</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>59</v>
@@ -9006,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.2763335001654901</v>
+        <v>1.27633350016549</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>40</v>
@@ -9032,7 +9670,7 @@
         <v>43</v>
       </c>
       <c r="AM20" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -9086,10 +9724,10 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1">
-        <v>43.856030999915603</v>
+        <v>43.8560309999156</v>
       </c>
       <c r="X21" s="1">
-        <v>43.856030999915603</v>
+        <v>43.8560309999156</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>60</v>
@@ -9098,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="1">
-        <v>3.0649611002299899</v>
+        <v>3.06496110022999</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>40</v>
@@ -9124,7 +9762,7 @@
         <v>43</v>
       </c>
       <c r="AM21" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -9178,10 +9816,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
-        <v>46.953193400055099</v>
+        <v>46.9531934000551</v>
       </c>
       <c r="X22" s="1">
-        <v>46.953193400055099</v>
+        <v>46.9531934000551</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>60</v>
@@ -9190,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.50398620008490902</v>
+        <v>0.503986200084909</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>40</v>
@@ -9216,7 +9854,7 @@
         <v>43</v>
       </c>
       <c r="AM22" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -9270,10 +9908,10 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>47.486066499957801</v>
+        <v>47.4860664999578</v>
       </c>
       <c r="X23" s="1">
-        <v>47.486066499957801</v>
+        <v>47.4860664999578</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>60</v>
@@ -9282,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.46020280010998199</v>
+        <v>0.460202800109982</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -9308,7 +9946,7 @@
         <v>43</v>
       </c>
       <c r="AM23" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -9362,10 +10000,10 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
-        <v>47.968902499880599</v>
+        <v>47.9689024998806</v>
       </c>
       <c r="X24" s="1">
-        <v>47.968902499880599</v>
+        <v>47.9689024998806</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>59</v>
@@ -9400,7 +10038,7 @@
         <v>43</v>
       </c>
       <c r="AM24" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -9454,10 +10092,10 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>49.089277199935097</v>
+        <v>49.0892771999351</v>
       </c>
       <c r="X25" s="1">
-        <v>49.089277199935097</v>
+        <v>49.0892771999351</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>59</v>
@@ -9466,7 +10104,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.58798560011200596</v>
+        <v>0.587985600112006</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>40</v>
@@ -9492,7 +10130,7 @@
         <v>43</v>
       </c>
       <c r="AM25" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -9546,10 +10184,10 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1">
-        <v>49.705180000048102</v>
+        <v>49.7051800000481</v>
       </c>
       <c r="X26" s="1">
-        <v>49.705180000048102</v>
+        <v>49.7051800000481</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>59</v>
@@ -9558,7 +10196,7 @@
         <v>1</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.49177590012550298</v>
+        <v>0.491775900125503</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>40</v>
@@ -9584,7 +10222,7 @@
         <v>43</v>
       </c>
       <c r="AM26" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -9638,10 +10276,10 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
-        <v>50.268344099866198</v>
+        <v>50.2683440998662</v>
       </c>
       <c r="X27" s="1">
-        <v>50.268344099866198</v>
+        <v>50.2683440998662</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>59</v>
@@ -9650,7 +10288,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.39179610018618399</v>
+        <v>0.391796100186184</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>40</v>
@@ -9676,7 +10314,7 @@
         <v>43</v>
       </c>
       <c r="AM27" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -9730,10 +10368,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
-        <v>50.691336699994203</v>
+        <v>50.6913366999942</v>
       </c>
       <c r="X28" s="1">
-        <v>50.691336699994203</v>
+        <v>50.6913366999942</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>59</v>
@@ -9768,7 +10406,7 @@
         <v>43</v>
       </c>
       <c r="AM28" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -9822,10 +10460,10 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
-        <v>51.364250399870798</v>
+        <v>51.3642503998708</v>
       </c>
       <c r="X29" s="1">
-        <v>51.364250399870798</v>
+        <v>51.3642503998708</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>59</v>
@@ -9834,7 +10472,7 @@
         <v>1</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.43660510028712401</v>
+        <v>0.436605100287124</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>40</v>
@@ -9860,7 +10498,7 @@
         <v>43</v>
       </c>
       <c r="AM29" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -9914,10 +10552,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1">
-        <v>51.839232800062703</v>
+        <v>51.8392328000627</v>
       </c>
       <c r="X30" s="1">
-        <v>51.839232800062703</v>
+        <v>51.8392328000627</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>59</v>
@@ -9926,7 +10564,7 @@
         <v>1</v>
       </c>
       <c r="AA30" s="1">
-        <v>0.52473860001191497</v>
+        <v>0.524738600011915</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>40</v>
@@ -9952,7 +10590,7 @@
         <v>43</v>
       </c>
       <c r="AM30" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -10006,10 +10644,10 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
-        <v>52.438829099992198</v>
+        <v>52.4388290999922</v>
       </c>
       <c r="X31" s="1">
-        <v>52.438829099992198</v>
+        <v>52.4388290999922</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>59</v>
@@ -10018,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.50086250016465705</v>
+        <v>0.500862500164657</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>40</v>
@@ -10044,7 +10682,7 @@
         <v>43</v>
       </c>
       <c r="AM31" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -10098,10 +10736,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1">
-        <v>52.973454199964102</v>
+        <v>52.9734541999641</v>
       </c>
       <c r="X32" s="1">
-        <v>52.973454199964102</v>
+        <v>52.9734541999641</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>59</v>
@@ -10110,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.47604990028776201</v>
+        <v>0.476049900287762</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>40</v>
@@ -10136,7 +10774,7 @@
         <v>43</v>
       </c>
       <c r="AM32" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -10202,7 +10840,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.85086000012233798</v>
+        <v>0.850860000122338</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>40</v>
@@ -10228,7 +10866,7 @@
         <v>43</v>
       </c>
       <c r="AM33" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -10294,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.18958110013045301</v>
+        <v>0.189581100130453</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>40</v>
@@ -10320,7 +10958,7 @@
         <v>43</v>
       </c>
       <c r="AM34" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -10374,10 +11012,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1">
-        <v>54.685481899883598</v>
+        <v>54.6854818998836</v>
       </c>
       <c r="X35" s="1">
-        <v>54.685481899883598</v>
+        <v>54.6854818998836</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>60</v>
@@ -10386,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="1">
-        <v>0.75602960004471198</v>
+        <v>0.756029600044712</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>40</v>
@@ -10412,7 +11050,7 @@
         <v>43</v>
       </c>
       <c r="AM35" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -10466,10 +11104,10 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1">
-        <v>55.512623700080397</v>
+        <v>55.5126237000804</v>
       </c>
       <c r="X36" s="1">
-        <v>55.512623700080397</v>
+        <v>55.5126237000804</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>60</v>
@@ -10478,7 +11116,7 @@
         <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <v>0.38859080011024999</v>
+        <v>0.38859080011025</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>40</v>
@@ -10504,7 +11142,7 @@
         <v>43</v>
       </c>
       <c r="AM36" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -10550,16 +11188,16 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1">
-        <v>55.928733800072202</v>
+        <v>55.9287338000722</v>
       </c>
       <c r="AD37" s="1">
-        <v>55.928733800072202</v>
+        <v>55.9287338000722</v>
       </c>
       <c r="AE37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF37" s="1">
-        <v>2.6190484000835501</v>
+        <v>2.61904840008355</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>40</v>
@@ -10580,7 +11218,7 @@
         <v>43</v>
       </c>
       <c r="AM37" s="1">
-        <v>60.085971018425397</v>
+        <v>60.0859710184254</v>
       </c>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
@@ -10814,18 +11452,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD6430C-C49B-4090-93F7-8D8E9E11A221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BE41"/>
   <sheetViews>
     <sheetView topLeftCell="X12" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:Z36"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:57">
       <c r="A1" s="1" t="s">
@@ -10986,7 +11626,7 @@
         <v>39</v>
       </c>
       <c r="O2" s="1">
-        <v>3.0266573999542699</v>
+        <v>3.02665739995427</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
@@ -11156,7 +11796,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1">
-        <v>21.631478700088302</v>
+        <v>21.6314787000883</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -11239,7 +11879,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>22.630594500107598</v>
+        <v>22.6305945001076</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -11322,7 +11962,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>23.629810699960199</v>
+        <v>23.6298106999602</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -11405,7 +12045,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>24.632456700084699</v>
+        <v>24.6324567000847</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -11488,7 +12128,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>25.632325100013901</v>
+        <v>25.6323251000139</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -11654,7 +12294,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1">
-        <v>27.626453000120801</v>
+        <v>27.6264530001208</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
@@ -11737,7 +12377,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1">
-        <v>28.625342700164701</v>
+        <v>28.6253427001647</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -11820,7 +12460,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>29.631263500079498</v>
+        <v>29.6312635000795</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -11903,7 +12543,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>30.672401000047099</v>
+        <v>30.6724010000471</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -11986,7 +12626,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <v>31.622633000137199</v>
+        <v>31.6226330001372</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -12069,7 +12709,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>32.621822600020003</v>
+        <v>32.62182260002</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -12152,7 +12792,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>33.622340600006197</v>
+        <v>33.6223406000062</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -12226,10 +12866,10 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
-        <v>34.619183399947303</v>
+        <v>34.6191833999473</v>
       </c>
       <c r="S17" s="1">
-        <v>34.619183399947303</v>
+        <v>34.6191833999473</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>39</v>
@@ -12338,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.0701409999746798</v>
+        <v>2.07014099997468</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>40</v>
@@ -12520,10 +13160,10 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>39.697814400075004</v>
+        <v>39.697814400075</v>
       </c>
       <c r="X20" s="1">
-        <v>39.697814400075004</v>
+        <v>39.697814400075</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>59</v>
@@ -12617,10 +13257,10 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1">
-        <v>40.591228600125703</v>
+        <v>40.5912286001257</v>
       </c>
       <c r="X21" s="1">
-        <v>40.591228600125703</v>
+        <v>40.5912286001257</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>60</v>
@@ -12629,7 +13269,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.76864319993182995</v>
+        <v>0.76864319993183</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>40</v>
@@ -12714,10 +13354,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
-        <v>41.380337600130503</v>
+        <v>41.3803376001305</v>
       </c>
       <c r="X22" s="1">
-        <v>41.380337600130503</v>
+        <v>41.3803376001305</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>59</v>
@@ -12726,7 +13366,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.1427452999632799</v>
+        <v>1.14274529996328</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>40</v>
@@ -12811,10 +13451,10 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>42.546729000052402</v>
+        <v>42.5467290000524</v>
       </c>
       <c r="X23" s="1">
-        <v>42.546729000052402</v>
+        <v>42.5467290000524</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>59</v>
@@ -12823,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.60280030011199404</v>
+        <v>0.602800300111994</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -12908,10 +13548,10 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
-        <v>43.190223800018401</v>
+        <v>43.1902238000184</v>
       </c>
       <c r="X24" s="1">
-        <v>43.190223800018401</v>
+        <v>43.1902238000184</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>59</v>
@@ -12920,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.46758870012126802</v>
+        <v>0.467588700121268</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>40</v>
@@ -13005,10 +13645,10 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>43.688685999950302</v>
+        <v>43.6886859999503</v>
       </c>
       <c r="X25" s="1">
-        <v>43.688685999950302</v>
+        <v>43.6886859999503</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>59</v>
@@ -13102,10 +13742,10 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1">
-        <v>44.153176800114998</v>
+        <v>44.153176800115</v>
       </c>
       <c r="X26" s="1">
-        <v>44.153176800114998</v>
+        <v>44.153176800115</v>
       </c>
       <c r="Y26" s="1" t="s">
         <v>59</v>
@@ -13114,7 +13754,7 @@
         <v>1</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.60393469990231097</v>
+        <v>0.603934699902311</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>40</v>
@@ -13199,10 +13839,10 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
-        <v>44.788271500030497</v>
+        <v>44.7882715000305</v>
       </c>
       <c r="X27" s="1">
-        <v>44.788271500030497</v>
+        <v>44.7882715000305</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>59</v>
@@ -13211,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.97492829989641905</v>
+        <v>0.974928299896419</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>40</v>
@@ -13296,10 +13936,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
-        <v>45.803424100158701</v>
+        <v>45.8034241001587</v>
       </c>
       <c r="X28" s="1">
-        <v>45.803424100158701</v>
+        <v>45.8034241001587</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>60</v>
@@ -13308,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="AA28" s="1">
-        <v>1.1182426000013901</v>
+        <v>1.11824260000139</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>40</v>
@@ -13393,10 +14033,10 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
-        <v>47.001570800086398</v>
+        <v>47.0015708000864</v>
       </c>
       <c r="X29" s="1">
-        <v>47.001570800086398</v>
+        <v>47.0015708000864</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>60</v>
@@ -13405,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.72149370005354196</v>
+        <v>0.721493700053542</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>40</v>
@@ -13490,10 +14130,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1">
-        <v>47.800168600166202</v>
+        <v>47.8001686001662</v>
       </c>
       <c r="X30" s="1">
-        <v>47.800168600166202</v>
+        <v>47.8001686001662</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>59</v>
@@ -13502,7 +14142,7 @@
         <v>1</v>
       </c>
       <c r="AA30" s="1">
-        <v>0.95926030003465701</v>
+        <v>0.959260300034657</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>40</v>
@@ -13587,10 +14227,10 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
-        <v>48.802167100133303</v>
+        <v>48.8021671001333</v>
       </c>
       <c r="X31" s="1">
-        <v>48.802167100133303</v>
+        <v>48.8021671001333</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>60</v>
@@ -13599,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="1">
-        <v>0.80298199993558195</v>
+        <v>0.802981999935582</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>40</v>
@@ -13684,10 +14324,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1">
-        <v>49.634949299972497</v>
+        <v>49.6349492999725</v>
       </c>
       <c r="X32" s="1">
-        <v>49.634949299972497</v>
+        <v>49.6349492999725</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>59</v>
@@ -13696,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.92870689998380795</v>
+        <v>0.928706899983808</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>40</v>
@@ -13781,10 +14421,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1">
-        <v>50.600983500014898</v>
+        <v>50.6009835000149</v>
       </c>
       <c r="X33" s="1">
-        <v>50.600983500014898</v>
+        <v>50.6009835000149</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>59</v>
@@ -13793,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <v>1.7219853000715299</v>
+        <v>1.72198530007153</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>40</v>
@@ -13878,10 +14518,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1">
-        <v>52.360473500098998</v>
+        <v>52.360473500099</v>
       </c>
       <c r="X34" s="1">
-        <v>52.360473500098998</v>
+        <v>52.360473500099</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>60</v>
@@ -13890,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.90271709999069505</v>
+        <v>0.902717099990695</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>40</v>
@@ -13975,10 +14615,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1">
-        <v>53.295390099985497</v>
+        <v>53.2953900999855</v>
       </c>
       <c r="X35" s="1">
-        <v>53.295390099985497</v>
+        <v>53.2953900999855</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>59</v>
@@ -13987,7 +14627,7 @@
         <v>1</v>
       </c>
       <c r="AA35" s="1">
-        <v>0.93179830000735797</v>
+        <v>0.931798300007358</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>40</v>
@@ -14161,10 +14801,10 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1">
-        <v>55.417435100069198</v>
+        <v>55.4174351000692</v>
       </c>
       <c r="AD37" s="1">
-        <v>55.417435100069198</v>
+        <v>55.4174351000692</v>
       </c>
       <c r="AE37" s="1" t="s">
         <v>39</v>
@@ -14450,18 +15090,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8EB378-3AD7-40B8-803B-6A1A089B4E7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AT40"/>
   <sheetViews>
     <sheetView topLeftCell="X11" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:Z36"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
@@ -14602,16 +15244,16 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <v>21.617525000125099</v>
+        <v>21.6175250001251</v>
       </c>
       <c r="M2" s="1">
-        <v>21.617525000125099</v>
+        <v>21.6175250001251</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O2" s="1">
-        <v>1.1729663000442001</v>
+        <v>1.1729663000442</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
@@ -14640,7 +15282,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>42</v>
@@ -14649,7 +15291,7 @@
         <v>43</v>
       </c>
       <c r="AM2" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
@@ -14687,7 +15329,7 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1">
-        <v>22.880447000032198</v>
+        <v>22.8804470000322</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -14712,7 +15354,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>42</v>
@@ -14721,7 +15363,7 @@
         <v>43</v>
       </c>
       <c r="AM3" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -14784,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>42</v>
@@ -14793,7 +15435,7 @@
         <v>43</v>
       </c>
       <c r="AM4" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -14831,7 +15473,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>24.829842400038601</v>
+        <v>24.8298424000386</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -14856,7 +15498,7 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>42</v>
@@ -14865,7 +15507,7 @@
         <v>43</v>
       </c>
       <c r="AM5" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -14903,7 +15545,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1">
-        <v>25.828901900211299</v>
+        <v>25.8289019002113</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -14928,7 +15570,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>42</v>
@@ -14937,7 +15579,7 @@
         <v>43</v>
       </c>
       <c r="AM6" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -14975,7 +15617,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>26.838145300047401</v>
+        <v>26.8381453000474</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -15000,7 +15642,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>42</v>
@@ -15009,7 +15651,7 @@
         <v>43</v>
       </c>
       <c r="AM7" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -15047,7 +15689,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>27.835514100035599</v>
+        <v>27.8355141000356</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -15072,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>42</v>
@@ -15081,7 +15723,7 @@
         <v>43</v>
       </c>
       <c r="AM8" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
@@ -15119,7 +15761,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1">
-        <v>28.833627399988401</v>
+        <v>28.8336273999884</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -15144,7 +15786,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>42</v>
@@ -15153,7 +15795,7 @@
         <v>43</v>
       </c>
       <c r="AM9" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -15216,7 +15858,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>42</v>
@@ -15225,7 +15867,7 @@
         <v>43</v>
       </c>
       <c r="AM10" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -15263,7 +15905,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1">
-        <v>30.830336000071799</v>
+        <v>30.8303360000718</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -15288,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>42</v>
@@ -15297,7 +15939,7 @@
         <v>43</v>
       </c>
       <c r="AM11" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -15335,7 +15977,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>31.829676900058899</v>
+        <v>31.8296769000589</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -15360,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>42</v>
@@ -15369,7 +16011,7 @@
         <v>43</v>
       </c>
       <c r="AM12" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -15432,7 +16074,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>42</v>
@@ -15441,7 +16083,7 @@
         <v>43</v>
       </c>
       <c r="AM13" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -15479,7 +16121,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <v>33.827449500095099</v>
+        <v>33.8274495000951</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -15504,7 +16146,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>42</v>
@@ -15513,7 +16155,7 @@
         <v>43</v>
       </c>
       <c r="AM14" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -15551,7 +16193,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>34.826587200164703</v>
+        <v>34.8265872001647</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -15576,7 +16218,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>42</v>
@@ -15585,7 +16227,7 @@
         <v>43</v>
       </c>
       <c r="AM15" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -15623,7 +16265,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>35.819880600087302</v>
+        <v>35.8198806000873</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -15648,7 +16290,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>42</v>
@@ -15657,7 +16299,7 @@
         <v>43</v>
       </c>
       <c r="AM16" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -15686,16 +16328,16 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
-        <v>36.835668500047099</v>
+        <v>36.8356685000471</v>
       </c>
       <c r="S17" s="1">
-        <v>36.835668500047099</v>
+        <v>36.8356685000471</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="U17" s="1">
-        <v>1.0791265000589101</v>
+        <v>1.07912650005891</v>
       </c>
       <c r="V17" s="1" t="s">
         <v>40</v>
@@ -15718,7 +16360,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>42</v>
@@ -15727,7 +16369,7 @@
         <v>43</v>
       </c>
       <c r="AM17" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
@@ -15775,10 +16417,10 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1">
-        <v>37.991436500102203</v>
+        <v>37.9914365001022</v>
       </c>
       <c r="X18" s="1">
-        <v>37.991436500102203</v>
+        <v>37.9914365001022</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>59</v>
@@ -15787,7 +16429,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.1196768998633999</v>
+        <v>2.1196768998634</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>40</v>
@@ -15804,7 +16446,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>42</v>
@@ -15813,7 +16455,7 @@
         <v>43</v>
       </c>
       <c r="AM18" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -15873,7 +16515,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.54630519985221304</v>
+        <v>0.546305199852213</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>40</v>
@@ -15890,7 +16532,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>42</v>
@@ -15899,7 +16541,7 @@
         <v>43</v>
       </c>
       <c r="AM19" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -15959,7 +16601,7 @@
         <v>1</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.50209519988857199</v>
+        <v>0.502095199888572</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>40</v>
@@ -15976,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>42</v>
@@ -15985,7 +16627,7 @@
         <v>43</v>
       </c>
       <c r="AM20" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -16033,10 +16675,10 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1">
-        <v>41.281595700187601</v>
+        <v>41.2815957001876</v>
       </c>
       <c r="X21" s="1">
-        <v>41.281595700187601</v>
+        <v>41.2815957001876</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>59</v>
@@ -16062,7 +16704,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>42</v>
@@ -16071,7 +16713,7 @@
         <v>43</v>
       </c>
       <c r="AM21" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -16119,10 +16761,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
-        <v>41.937790900003101</v>
+        <v>41.9377909000031</v>
       </c>
       <c r="X22" s="1">
-        <v>41.937790900003101</v>
+        <v>41.9377909000031</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>60</v>
@@ -16131,7 +16773,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.3172636998351599</v>
+        <v>1.31726369983516</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>40</v>
@@ -16148,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>42</v>
@@ -16157,7 +16799,7 @@
         <v>43</v>
       </c>
       <c r="AM22" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -16205,10 +16847,10 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>43.280673500150399</v>
+        <v>43.2806735001504</v>
       </c>
       <c r="X23" s="1">
-        <v>43.280673500150399</v>
+        <v>43.2806735001504</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>60</v>
@@ -16217,7 +16859,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.88533019996248097</v>
+        <v>0.885330199962481</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -16234,7 +16876,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>42</v>
@@ -16243,7 +16885,7 @@
         <v>43</v>
       </c>
       <c r="AM23" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -16291,10 +16933,10 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
-        <v>44.194646900054003</v>
+        <v>44.194646900054</v>
       </c>
       <c r="X24" s="1">
-        <v>44.194646900054003</v>
+        <v>44.194646900054</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>59</v>
@@ -16303,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.0038385000079799</v>
+        <v>1.00383850000798</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>40</v>
@@ -16320,7 +16962,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>42</v>
@@ -16329,7 +16971,7 @@
         <v>43</v>
       </c>
       <c r="AM24" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -16377,10 +17019,10 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>45.226942000212098</v>
+        <v>45.2269420002121</v>
       </c>
       <c r="X25" s="1">
-        <v>45.226942000212098</v>
+        <v>45.2269420002121</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>59</v>
@@ -16406,7 +17048,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>42</v>
@@ -16415,7 +17057,7 @@
         <v>43</v>
       </c>
       <c r="AM25" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -16475,7 +17117,7 @@
         <v>1</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.75831999978981901</v>
+        <v>0.758319999789819</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>40</v>
@@ -16492,7 +17134,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>42</v>
@@ -16501,7 +17143,7 @@
         <v>43</v>
       </c>
       <c r="AM26" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -16549,10 +17191,10 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
-        <v>47.305850200122201</v>
+        <v>47.3058502001222</v>
       </c>
       <c r="X27" s="1">
-        <v>47.305850200122201</v>
+        <v>47.3058502001222</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>60</v>
@@ -16578,7 +17220,7 @@
         <v>1</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>42</v>
@@ -16587,7 +17229,7 @@
         <v>43</v>
       </c>
       <c r="AM27" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -16635,10 +17277,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
-        <v>48.992250900017098</v>
+        <v>48.9922509000171</v>
       </c>
       <c r="X28" s="1">
-        <v>48.992250900017098</v>
+        <v>48.9922509000171</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>59</v>
@@ -16647,7 +17289,7 @@
         <v>1</v>
       </c>
       <c r="AA28" s="1">
-        <v>1.0334937998559299</v>
+        <v>1.03349379985593</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>40</v>
@@ -16664,7 +17306,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>42</v>
@@ -16673,7 +17315,7 @@
         <v>43</v>
       </c>
       <c r="AM28" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -16733,7 +17375,7 @@
         <v>1</v>
       </c>
       <c r="AA29" s="1">
-        <v>0.81113199982792095</v>
+        <v>0.811131999827921</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>40</v>
@@ -16750,7 +17392,7 @@
         <v>1</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>42</v>
@@ -16759,7 +17401,7 @@
         <v>43</v>
       </c>
       <c r="AM29" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -16807,10 +17449,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1">
-        <v>50.891720000188798</v>
+        <v>50.8917200001888</v>
       </c>
       <c r="X30" s="1">
-        <v>50.891720000188798</v>
+        <v>50.8917200001888</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>59</v>
@@ -16819,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="AA30" s="1">
-        <v>1.0720902998000299</v>
+        <v>1.07209029980003</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>40</v>
@@ -16836,7 +17478,7 @@
         <v>1</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>42</v>
@@ -16845,7 +17487,7 @@
         <v>43</v>
       </c>
       <c r="AM30" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -16893,10 +17535,10 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
-        <v>51.991119000129402</v>
+        <v>51.9911190001294</v>
       </c>
       <c r="X31" s="1">
-        <v>51.991119000129402</v>
+        <v>51.9911190001294</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>60</v>
@@ -16905,7 +17547,7 @@
         <v>1</v>
       </c>
       <c r="AA31" s="1">
-        <v>1.1468682999256901</v>
+        <v>1.14686829992569</v>
       </c>
       <c r="AB31" s="1" t="s">
         <v>40</v>
@@ -16922,7 +17564,7 @@
         <v>1</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>42</v>
@@ -16931,7 +17573,7 @@
         <v>43</v>
       </c>
       <c r="AM31" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -16979,10 +17621,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1">
-        <v>53.172212400007901</v>
+        <v>53.1722124000079</v>
       </c>
       <c r="X32" s="1">
-        <v>53.172212400007901</v>
+        <v>53.1722124000079</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>59</v>
@@ -16991,7 +17633,7 @@
         <v>1</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.92816339991986696</v>
+        <v>0.928163399919867</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>40</v>
@@ -17008,7 +17650,7 @@
         <v>1</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>42</v>
@@ -17017,7 +17659,7 @@
         <v>43</v>
       </c>
       <c r="AM32" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -17065,10 +17707,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1">
-        <v>54.122304500080602</v>
+        <v>54.1223045000806</v>
       </c>
       <c r="X33" s="1">
-        <v>54.122304500080602</v>
+        <v>54.1223045000806</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>59</v>
@@ -17094,7 +17736,7 @@
         <v>1</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>42</v>
@@ -17103,7 +17745,7 @@
         <v>43</v>
       </c>
       <c r="AM33" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -17151,10 +17793,10 @@
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1">
-        <v>55.288432300090697</v>
+        <v>55.2884323000907</v>
       </c>
       <c r="X34" s="1">
-        <v>55.288432300090697</v>
+        <v>55.2884323000907</v>
       </c>
       <c r="Y34" s="1" t="s">
         <v>60</v>
@@ -17163,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.93338289973326005</v>
+        <v>0.93338289973326</v>
       </c>
       <c r="AB34" s="1" t="s">
         <v>40</v>
@@ -17180,7 +17822,7 @@
         <v>1</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>42</v>
@@ -17189,7 +17831,7 @@
         <v>43</v>
       </c>
       <c r="AM34" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -17249,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="AA35" s="1">
-        <v>0.80924029997549896</v>
+        <v>0.809240299975499</v>
       </c>
       <c r="AB35" s="1" t="s">
         <v>40</v>
@@ -17266,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>42</v>
@@ -17275,7 +17917,7 @@
         <v>43</v>
       </c>
       <c r="AM35" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -17335,7 +17977,7 @@
         <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <v>0.95954049983993095</v>
+        <v>0.959540499839931</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>40</v>
@@ -17352,7 +17994,7 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>42</v>
@@ -17361,7 +18003,7 @@
         <v>43</v>
       </c>
       <c r="AM36" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -17410,7 +18052,7 @@
         <v>39</v>
       </c>
       <c r="AF37" s="1">
-        <v>0.97977129998616797</v>
+        <v>0.979771299986168</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>40</v>
@@ -17422,7 +18064,7 @@
         <v>1</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>42</v>
@@ -17431,7 +18073,7 @@
         <v>43</v>
       </c>
       <c r="AM37" s="1">
-        <v>60.042029433084103</v>
+        <v>60.0420294330841</v>
       </c>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
@@ -17587,18 +18229,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F59D53B-5351-46D1-890B-95168E5CDF6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BD41"/>
   <sheetViews>
     <sheetView topLeftCell="X10" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:Z36"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
@@ -17749,16 +18393,16 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1">
-        <v>17.480282899923601</v>
+        <v>17.4802828999236</v>
       </c>
       <c r="M2" s="1">
-        <v>17.480282899923601</v>
+        <v>17.4802828999236</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="O2" s="1">
-        <v>2.2813599000219198</v>
+        <v>2.28135990002192</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
@@ -17787,7 +18431,7 @@
         <v>1</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>42</v>
@@ -17796,7 +18440,7 @@
         <v>43</v>
       </c>
       <c r="AM2" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN2" s="1"/>
       <c r="AO2" s="1"/>
@@ -17869,7 +18513,7 @@
         <v>1</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>42</v>
@@ -17878,7 +18522,7 @@
         <v>43</v>
       </c>
       <c r="AM3" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN3" s="1"/>
       <c r="AO3" s="1"/>
@@ -17951,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>42</v>
@@ -17960,7 +18604,7 @@
         <v>43</v>
       </c>
       <c r="AM4" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
@@ -18008,7 +18652,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1">
-        <v>21.794803899945599</v>
+        <v>21.7948038999456</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -18033,7 +18677,7 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>42</v>
@@ -18042,7 +18686,7 @@
         <v>43</v>
       </c>
       <c r="AM5" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
@@ -18115,7 +18759,7 @@
         <v>1</v>
       </c>
       <c r="AJ6" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK6" s="1" t="s">
         <v>42</v>
@@ -18124,7 +18768,7 @@
         <v>43</v>
       </c>
       <c r="AM6" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
@@ -18172,7 +18816,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1">
-        <v>23.792980300029701</v>
+        <v>23.7929803000297</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -18197,7 +18841,7 @@
         <v>1</v>
       </c>
       <c r="AJ7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>42</v>
@@ -18206,7 +18850,7 @@
         <v>43</v>
       </c>
       <c r="AM7" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
@@ -18254,7 +18898,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1">
-        <v>24.792392800096401</v>
+        <v>24.7923928000964</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -18279,7 +18923,7 @@
         <v>1</v>
       </c>
       <c r="AJ8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>42</v>
@@ -18288,7 +18932,7 @@
         <v>43</v>
       </c>
       <c r="AM8" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
@@ -18336,7 +18980,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1">
-        <v>25.791739299893301</v>
+        <v>25.7917392998933</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
@@ -18361,7 +19005,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>42</v>
@@ -18370,7 +19014,7 @@
         <v>43</v>
       </c>
       <c r="AM9" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
@@ -18443,7 +19087,7 @@
         <v>1</v>
       </c>
       <c r="AJ10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK10" s="1" t="s">
         <v>42</v>
@@ -18452,7 +19096,7 @@
         <v>43</v>
       </c>
       <c r="AM10" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
@@ -18525,7 +19169,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK11" s="1" t="s">
         <v>42</v>
@@ -18534,7 +19178,7 @@
         <v>43</v>
       </c>
       <c r="AM11" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
@@ -18582,7 +19226,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1">
-        <v>28.788997800089401</v>
+        <v>28.7889978000894</v>
       </c>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
@@ -18607,7 +19251,7 @@
         <v>1</v>
       </c>
       <c r="AJ12" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK12" s="1" t="s">
         <v>42</v>
@@ -18616,7 +19260,7 @@
         <v>43</v>
       </c>
       <c r="AM12" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
@@ -18664,7 +19308,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1">
-        <v>29.787923400057402</v>
+        <v>29.7879234000574</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -18689,7 +19333,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>42</v>
@@ -18698,7 +19342,7 @@
         <v>43</v>
       </c>
       <c r="AM13" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
@@ -18746,7 +19390,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1">
-        <v>30.787074200110499</v>
+        <v>30.7870742001105</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
@@ -18771,7 +19415,7 @@
         <v>1</v>
       </c>
       <c r="AJ14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>42</v>
@@ -18780,7 +19424,7 @@
         <v>43</v>
       </c>
       <c r="AM14" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
@@ -18828,7 +19472,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1">
-        <v>31.786023200023902</v>
+        <v>31.7860232000239</v>
       </c>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -18853,7 +19497,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>42</v>
@@ -18862,7 +19506,7 @@
         <v>43</v>
       </c>
       <c r="AM15" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
@@ -18910,7 +19554,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1">
-        <v>32.785109000047598</v>
+        <v>32.7851090000476</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
@@ -18935,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>42</v>
@@ -18944,7 +19588,7 @@
         <v>43</v>
       </c>
       <c r="AM16" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
@@ -18983,10 +19627,10 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1">
-        <v>33.784224000060902</v>
+        <v>33.7842240000609</v>
       </c>
       <c r="S17" s="1">
-        <v>33.784224000060902</v>
+        <v>33.7842240000609</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>39</v>
@@ -19015,7 +19659,7 @@
         <v>1</v>
       </c>
       <c r="AJ17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>42</v>
@@ -19024,7 +19668,7 @@
         <v>43</v>
       </c>
       <c r="AM17" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
@@ -19082,10 +19726,10 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1">
-        <v>35.710540400119498</v>
+        <v>35.7105404001195</v>
       </c>
       <c r="X18" s="1">
-        <v>35.710540400119498</v>
+        <v>35.7105404001195</v>
       </c>
       <c r="Y18" s="1" t="s">
         <v>59</v>
@@ -19094,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.1445406000129799</v>
+        <v>2.14454060001298</v>
       </c>
       <c r="AB18" s="1" t="s">
         <v>40</v>
@@ -19111,7 +19755,7 @@
         <v>1</v>
       </c>
       <c r="AJ18" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>42</v>
@@ -19120,7 +19764,7 @@
         <v>43</v>
       </c>
       <c r="AM18" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
@@ -19178,10 +19822,10 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
-        <v>37.886717200046398</v>
+        <v>37.8867172000464</v>
       </c>
       <c r="X19" s="1">
-        <v>37.886717200046398</v>
+        <v>37.8867172000464</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>59</v>
@@ -19190,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.2414267999119999</v>
+        <v>1.241426799912</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>40</v>
@@ -19207,7 +19851,7 @@
         <v>1</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>42</v>
@@ -19216,7 +19860,7 @@
         <v>43</v>
       </c>
       <c r="AM19" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
@@ -19286,7 +19930,7 @@
         <v>0</v>
       </c>
       <c r="AA20" s="1">
-        <v>1.8929473001044199</v>
+        <v>1.89294730010442</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>40</v>
@@ -19303,7 +19947,7 @@
         <v>1</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>42</v>
@@ -19312,7 +19956,7 @@
         <v>43</v>
       </c>
       <c r="AM20" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
@@ -19370,10 +20014,10 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1">
-        <v>41.061548399971798</v>
+        <v>41.0615483999718</v>
       </c>
       <c r="X21" s="1">
-        <v>41.061548399971798</v>
+        <v>41.0615483999718</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>59</v>
@@ -19382,7 +20026,7 @@
         <v>1</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.0944324000738499</v>
+        <v>1.09443240007385</v>
       </c>
       <c r="AB21" s="1" t="s">
         <v>40</v>
@@ -19399,7 +20043,7 @@
         <v>1</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>42</v>
@@ -19408,7 +20052,7 @@
         <v>43</v>
       </c>
       <c r="AM21" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
@@ -19466,10 +20110,10 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
-        <v>42.176439899951198</v>
+        <v>42.1764398999512</v>
       </c>
       <c r="X22" s="1">
-        <v>42.176439899951198</v>
+        <v>42.1764398999512</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>59</v>
@@ -19478,7 +20122,7 @@
         <v>1</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.94986759987659697</v>
+        <v>0.949867599876597</v>
       </c>
       <c r="AB22" s="1" t="s">
         <v>40</v>
@@ -19495,7 +20139,7 @@
         <v>1</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>42</v>
@@ -19504,7 +20148,7 @@
         <v>43</v>
       </c>
       <c r="AM22" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
@@ -19562,10 +20206,10 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>43.162099499953896</v>
+        <v>43.1620994999539</v>
       </c>
       <c r="X23" s="1">
-        <v>43.162099499953896</v>
+        <v>43.1620994999539</v>
       </c>
       <c r="Y23" s="1" t="s">
         <v>59</v>
@@ -19574,7 +20218,7 @@
         <v>1</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.89572359994053796</v>
+        <v>0.895723599940538</v>
       </c>
       <c r="AB23" s="1" t="s">
         <v>40</v>
@@ -19591,7 +20235,7 @@
         <v>1</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>42</v>
@@ -19600,7 +20244,7 @@
         <v>43</v>
       </c>
       <c r="AM23" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
@@ -19658,10 +20302,10 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
-        <v>44.074692300055098</v>
+        <v>44.0746923000551</v>
       </c>
       <c r="X24" s="1">
-        <v>44.074692300055098</v>
+        <v>44.0746923000551</v>
       </c>
       <c r="Y24" s="1" t="s">
         <v>59</v>
@@ -19670,7 +20314,7 @@
         <v>1</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.68193339998833802</v>
+        <v>0.681933399988338</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>40</v>
@@ -19687,7 +20331,7 @@
         <v>1</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>42</v>
@@ -19696,7 +20340,7 @@
         <v>43</v>
       </c>
       <c r="AM24" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
@@ -19754,10 +20398,10 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1">
-        <v>44.776592799927997</v>
+        <v>44.776592799928</v>
       </c>
       <c r="X25" s="1">
-        <v>44.776592799927997</v>
+        <v>44.776592799928</v>
       </c>
       <c r="Y25" s="1" t="s">
         <v>59</v>
@@ -19766,7 +20410,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.79190890002064396</v>
+        <v>0.791908900020644</v>
       </c>
       <c r="AB25" s="1" t="s">
         <v>40</v>
@@ -19783,7 +20427,7 @@
         <v>1</v>
       </c>
       <c r="AJ25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>42</v>
@@ -19792,7 +20436,7 @@
         <v>43</v>
       </c>
       <c r="AM25" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
@@ -19862,7 +20506,7 @@
         <v>1</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.3279251998756001</v>
+        <v>1.3279251998756</v>
       </c>
       <c r="AB26" s="1" t="s">
         <v>40</v>
@@ -19879,7 +20523,7 @@
         <v>1</v>
       </c>
       <c r="AJ26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>42</v>
@@ -19888,7 +20532,7 @@
         <v>43</v>
       </c>
       <c r="AM26" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
@@ -19946,10 +20590,10 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1">
-        <v>46.938656500074998</v>
+        <v>46.938656500075</v>
       </c>
       <c r="X27" s="1">
-        <v>46.938656500074998</v>
+        <v>46.938656500075</v>
       </c>
       <c r="Y27" s="1" t="s">
         <v>60</v>
@@ -19958,7 +20602,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="1">
-        <v>0.91667670011520297</v>
+        <v>0.916676700115203</v>
       </c>
       <c r="AB27" s="1" t="s">
         <v>40</v>
@@ -19975,7 +20619,7 @@
         <v>1</v>
       </c>
       <c r="AJ27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>42</v>
@@ -19984,7 +20628,7 @@
         <v>43</v>
       </c>
       <c r="AM27" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
@@ -20042,10 +20686,10 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1">
-        <v>47.891131799900897</v>
+        <v>47.8911317999009</v>
       </c>
       <c r="X28" s="1">
-        <v>47.891131799900897</v>
+        <v>47.8911317999009</v>
       </c>
       <c r="Y28" s="1" t="s">
         <v>59</v>
@@ -20054,7 +20698,7 @@
         <v>1</v>
       </c>
       <c r="AA28" s="1">
-        <v>0.89500600006431297</v>
+        <v>0.895006000064313</v>
       </c>
       <c r="AB28" s="1" t="s">
         <v>40</v>
@@ -20071,7 +20715,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>42</v>
@@ -20080,7 +20724,7 @@
         <v>43</v>
       </c>
       <c r="AM28" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
@@ -20138,10 +20782,10 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
-        <v>48.806971099926102</v>
+        <v>48.8069710999261</v>
       </c>
       <c r="X29" s="1">
-        <v>48.806971099926102</v>
+        <v>48.8069710999261</v>
       </c>
       <c r="Y29" s="1" t="s">
         <v>59</v>
@@ -20167,7 +20811,7 @@
         <v>1</v>
       </c>
       <c r="AJ29" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>42</v>
@@ -20176,7 +20820,7 @@
         <v>43</v>
       </c>
       <c r="AM29" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
@@ -20234,10 +20878,10 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1">
-        <v>49.802010599989401</v>
+        <v>49.8020105999894</v>
       </c>
       <c r="X30" s="1">
-        <v>49.802010599989401</v>
+        <v>49.8020105999894</v>
       </c>
       <c r="Y30" s="1" t="s">
         <v>59</v>
@@ -20246,7 +20890,7 @@
         <v>1</v>
       </c>
       <c r="AA30" s="1">
-        <v>1.0219674999825601</v>
+        <v>1.02196749998256</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>40</v>
@@ -20263,7 +20907,7 @@
         <v>1</v>
       </c>
       <c r="AJ30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>42</v>
@@ -20272,7 +20916,7 @@
         <v>43</v>
       </c>
       <c r="AM30" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
@@ -20330,10 +20974,10 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1">
-        <v>50.850979699985999</v>
+        <v>50.850979699986</v>
       </c>
       <c r="X31" s="1">
-        <v>50.850979699985999</v>
+        <v>50.850979699986</v>
       </c>
       <c r="Y31" s="1" t="s">
         <v>59</v>
@@ -20359,7 +21003,7 @@
         <v>1</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>42</v>
@@ -20368,7 +21012,7 @@
         <v>43</v>
       </c>
       <c r="AM31" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
@@ -20426,10 +21070,10 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1">
-        <v>51.650325000053201</v>
+        <v>51.6503250000532</v>
       </c>
       <c r="X32" s="1">
-        <v>51.650325000053201</v>
+        <v>51.6503250000532</v>
       </c>
       <c r="Y32" s="1" t="s">
         <v>60</v>
@@ -20438,7 +21082,7 @@
         <v>1</v>
       </c>
       <c r="AA32" s="1">
-        <v>1.1630524001084199</v>
+        <v>1.16305240010842</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>40</v>
@@ -20455,7 +21099,7 @@
         <v>1</v>
       </c>
       <c r="AJ32" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>42</v>
@@ -20464,7 +21108,7 @@
         <v>43</v>
       </c>
       <c r="AM32" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
@@ -20522,10 +21166,10 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1">
-        <v>52.832651100121403</v>
+        <v>52.8326511001214</v>
       </c>
       <c r="X33" s="1">
-        <v>52.832651100121403</v>
+        <v>52.8326511001214</v>
       </c>
       <c r="Y33" s="1" t="s">
         <v>60</v>
@@ -20534,7 +21178,7 @@
         <v>1</v>
       </c>
       <c r="AA33" s="1">
-        <v>1.0458222001325299</v>
+        <v>1.04582220013253</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>40</v>
@@ -20551,7 +21195,7 @@
         <v>1</v>
       </c>
       <c r="AJ33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK33" s="1" t="s">
         <v>42</v>
@@ -20560,7 +21204,7 @@
         <v>43</v>
       </c>
       <c r="AM33" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
@@ -20647,7 +21291,7 @@
         <v>1</v>
       </c>
       <c r="AJ34" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK34" s="1" t="s">
         <v>42</v>
@@ -20656,7 +21300,7 @@
         <v>43</v>
       </c>
       <c r="AM34" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
@@ -20714,10 +21358,10 @@
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1">
-        <v>54.947252199985002</v>
+        <v>54.947252199985</v>
       </c>
       <c r="X35" s="1">
-        <v>54.947252199985002</v>
+        <v>54.947252199985</v>
       </c>
       <c r="Y35" s="1" t="s">
         <v>59</v>
@@ -20743,7 +21387,7 @@
         <v>1</v>
       </c>
       <c r="AJ35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK35" s="1" t="s">
         <v>42</v>
@@ -20752,7 +21396,7 @@
         <v>43</v>
       </c>
       <c r="AM35" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
@@ -20810,10 +21454,10 @@
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1">
-        <v>56.595544399926403</v>
+        <v>56.5955443999264</v>
       </c>
       <c r="X36" s="1">
-        <v>56.595544399926403</v>
+        <v>56.5955443999264</v>
       </c>
       <c r="Y36" s="1" t="s">
         <v>59</v>
@@ -20822,7 +21466,7 @@
         <v>1</v>
       </c>
       <c r="AA36" s="1">
-        <v>0.95713229989632898</v>
+        <v>0.957132299896329</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>40</v>
@@ -20839,7 +21483,7 @@
         <v>1</v>
       </c>
       <c r="AJ36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>42</v>
@@ -20848,7 +21492,7 @@
         <v>43</v>
       </c>
       <c r="AM36" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
@@ -20898,16 +21542,16 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1">
-        <v>57.578082900028598</v>
+        <v>57.5780829000286</v>
       </c>
       <c r="AD37" s="1">
-        <v>57.578082900028598</v>
+        <v>57.5780829000286</v>
       </c>
       <c r="AE37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="AF37" s="1">
-        <v>1.8808927999343701</v>
+        <v>1.88089279993437</v>
       </c>
       <c r="AG37" s="1" t="s">
         <v>40</v>
@@ -20919,7 +21563,7 @@
         <v>1</v>
       </c>
       <c r="AJ37" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>42</v>
@@ -20928,7 +21572,7 @@
         <v>43</v>
       </c>
       <c r="AM37" s="1">
-        <v>59.940179775407401</v>
+        <v>59.9401797754074</v>
       </c>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
@@ -21182,27 +21826,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7F1D07-A0E1-448A-9181-CB4339F42B38}">
-  <dimension ref="A1:N75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.1111111111111" customWidth="1"/>
+    <col min="6" max="6" width="20.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="13.2222222222222" customWidth="1"/>
     <col min="13" max="13" width="15" customWidth="1"/>
-    <col min="14" max="14" width="4.88671875" customWidth="1"/>
+    <col min="14" max="14" width="4.88888888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -21763,7 +22409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
@@ -21795,7 +22441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:13">
       <c r="B18" s="1" t="s">
         <v>65</v>
       </c>
@@ -21827,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:13">
       <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
@@ -21859,7 +22505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:13">
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
@@ -21905,23 +22551,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:9">
       <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="1" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:14">
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -21953,7 +22607,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
@@ -21985,7 +22639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:13">
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -22017,7 +22671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:13">
       <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
@@ -22049,7 +22703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:13">
       <c r="B31" s="1" t="s">
         <v>63</v>
       </c>
@@ -22081,7 +22735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:13">
       <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
@@ -22561,9 +23215,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:9">
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>80</v>
@@ -22571,21 +23225,29 @@
     </row>
     <row r="49" spans="2:9">
       <c r="B49" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="2:9">
       <c r="B50" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="I51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6">
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -22602,7 +23264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:6">
       <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
@@ -22619,7 +23281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:6">
       <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
@@ -22636,7 +23298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:6">
       <c r="B55" s="1" t="s">
         <v>55</v>
       </c>
@@ -22653,7 +23315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:6">
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
@@ -22670,7 +23332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:6">
       <c r="B57" s="1" t="s">
         <v>50</v>
       </c>
@@ -22687,7 +23349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:6">
       <c r="B58" s="1" t="s">
         <v>49</v>
       </c>
@@ -22704,7 +23366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:6">
       <c r="B59" s="1" t="s">
         <v>54</v>
       </c>
@@ -22721,7 +23383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="2:9">
+    <row r="60" spans="2:6">
       <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
@@ -22738,7 +23400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:6">
       <c r="B61" s="1" t="s">
         <v>65</v>
       </c>
@@ -22755,7 +23417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:6">
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -22772,7 +23434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:9">
+    <row r="63" spans="2:6">
       <c r="B63" s="1" t="s">
         <v>45</v>
       </c>
@@ -22789,7 +23451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:6">
       <c r="B64" s="1" t="s">
         <v>47</v>
       </c>
@@ -22806,7 +23468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:6">
       <c r="B65" s="1" t="s">
         <v>57</v>
       </c>
@@ -22823,7 +23485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:6">
       <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
@@ -22840,7 +23502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:6">
       <c r="B67" s="1" t="s">
         <v>66</v>
       </c>
@@ -22857,7 +23519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:6">
       <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
@@ -22874,7 +23536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:6">
       <c r="B69" s="1" t="s">
         <v>48</v>
       </c>
@@ -22891,7 +23553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:6">
       <c r="B70" s="1" t="s">
         <v>63</v>
       </c>
@@ -22908,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:6">
       <c r="B71" s="1" t="s">
         <v>56</v>
       </c>
@@ -22925,59 +23587,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:2">
       <c r="B73" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G74">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320365C9-D1D7-4380-95E6-60FAF2EB6864}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="13.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -22990,8 +23662,11 @@
       <c r="D2">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23004,8 +23679,11 @@
       <c r="D3">
         <v>52</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23018,8 +23696,11 @@
       <c r="D4">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23032,8 +23713,11 @@
       <c r="D5">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23046,9 +23730,13 @@
       <c r="D6">
         <v>89</v>
       </c>
+      <c r="E6">
+        <v>0.47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>